--- a/Mätningar/Search.xlsx
+++ b/Mätningar/Search.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -226,13 +227,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>37.277227722772274</c:v>
+                  <c:v>68.346534653465341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.07</c:v>
+                  <c:v>220.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.85</c:v>
+                  <c:v>3677.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -291,13 +292,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>36.5</c:v>
+                  <c:v>36.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>58.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116.6</c:v>
+                  <c:v>209.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -579,6 +580,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-D407-4386-8C3F-FD19A4925BB7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D407-4386-8C3F-FD19A4925BB7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Blad1!$J$5:$J$7</c:f>
@@ -603,13 +642,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>37.277227722772274</c:v>
+                  <c:v>68.346534653465341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.07</c:v>
+                  <c:v>220.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.85</c:v>
+                  <c:v>3677.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,6 +899,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-FC68-46AB-BD81-1DFB3D7DB73A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FC68-46AB-BD81-1DFB3D7DB73A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-FC68-46AB-BD81-1DFB3D7DB73A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Blad1!$J$5:$J$7</c:f>
@@ -884,13 +980,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>36.5</c:v>
+                  <c:v>36.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>58.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116.6</c:v>
+                  <c:v>209.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,6 +1162,1466 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$J$5:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$K$5:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>68.346534653465341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC20-4E0E-92F1-9A622F1E8DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$J$5:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$L$5:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC20-4E0E-92F1-9A622F1E8DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="428490152"/>
+        <c:axId val="428492776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="428490152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428492776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428492776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428490152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$D$4:$D$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9540</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8644</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6919</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6412</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5330</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3866</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3822</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3392</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3777</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4281</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4231</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4255</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4090</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3589</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4260</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3036</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2247</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2412</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4617</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4644</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4317</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3611</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2971</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2404</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2523</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2288</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2331</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2263</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2389</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3290</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4402</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4146</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3866</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3324</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3074</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2289</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2306</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2543</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2627</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2490</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2411</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3008</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3830</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2577</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2203</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2226</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2333</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2303</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2355</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2428</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2259</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2372</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2268</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2636</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2416</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2223</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2225</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2262</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2235</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3698</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3401</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2454</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3232</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3297</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5373</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-988C-4CE0-A7B0-E2A2A31AE035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="351721520"/>
+        <c:axId val="351726768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="351721520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351726768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="351726768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351721520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$H$4:$H$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-884E-49CE-A542-D46E027C266F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="351780888"/>
+        <c:axId val="351781872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="351780888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351781872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="351781872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351780888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1186,6 +2742,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2695,20 +4371,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2735,16 +5946,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2800,6 +6011,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A3D01E-BCBD-437A-A36A-71A73A133749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>166948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166948</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagram 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C43D3DC-9854-48E9-85C5-D7AED627E0E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>159327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>20782</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagram 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C3B48C-D763-4FCB-8C58-FF8104A98279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3107,8 +6426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3169,22 +6488,22 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C4">
+        <v>196</v>
+      </c>
+      <c r="D4">
+        <v>3439</v>
+      </c>
+      <c r="F4">
+        <v>46</v>
+      </c>
+      <c r="G4">
         <v>51</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>56</v>
-      </c>
       <c r="H4">
-        <v>117</v>
+        <v>722</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>0</v>
@@ -3195,969 +6514,969 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>280</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>5084</v>
       </c>
       <c r="F5">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="H5">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="J5" s="2">
         <v>100</v>
       </c>
       <c r="K5">
         <f>AVERAGE(B4:B104)</f>
-        <v>37.277227722772274</v>
+        <v>68.346534653465341</v>
       </c>
       <c r="L5">
         <f>AVERAGE(F4:F104)</f>
-        <v>36.5</v>
+        <v>36.32</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="D6">
-        <v>86</v>
+        <v>4352</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="H6">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K6">
         <f>AVERAGE(C4:C104)</f>
-        <v>45.07</v>
+        <v>220.84</v>
       </c>
       <c r="L6">
         <f>AVERAGE(G4:G104)</f>
-        <v>48</v>
+        <v>58.56</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="D7">
-        <v>103</v>
+        <v>5378</v>
       </c>
       <c r="F7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G7">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H7">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7">
         <f>AVERAGE(D4:D1004)</f>
-        <v>89.85</v>
+        <v>3677.81</v>
       </c>
       <c r="L7">
         <f>AVERAGE(H4:H104)</f>
-        <v>116.6</v>
+        <v>209.38</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D8">
-        <v>116</v>
+        <v>9540</v>
       </c>
       <c r="F8">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="D9">
-        <v>109</v>
+        <v>8644</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>99</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="D10">
-        <v>86</v>
+        <v>7588</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G10">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H10">
-        <v>105</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="D11">
-        <v>85</v>
+        <v>9456</v>
       </c>
       <c r="F11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H11">
-        <v>105</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C12">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="D12">
-        <v>97</v>
+        <v>7695</v>
       </c>
       <c r="F12">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G12">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H12">
-        <v>124</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C13">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="D13">
-        <v>91</v>
+        <v>7646</v>
       </c>
       <c r="F13">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="D14">
-        <v>115</v>
+        <v>7112</v>
       </c>
       <c r="F14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H14">
-        <v>98</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="D15">
-        <v>99</v>
+        <v>7018</v>
       </c>
       <c r="F15">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H15">
-        <v>98</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="D16">
-        <v>97</v>
+        <v>6919</v>
       </c>
       <c r="F16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="D17">
-        <v>109</v>
+        <v>6412</v>
       </c>
       <c r="F17">
         <v>38</v>
       </c>
       <c r="G17">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H17">
-        <v>108</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C18">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="D18">
-        <v>87</v>
+        <v>6499</v>
       </c>
       <c r="F18">
         <v>38</v>
       </c>
       <c r="G18">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H18">
-        <v>95</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="D19">
-        <v>102</v>
+        <v>5330</v>
       </c>
       <c r="F19">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G19">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H19">
-        <v>96</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C20">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="D20">
-        <v>124</v>
+        <v>4996</v>
       </c>
       <c r="F20">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G20">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H20">
-        <v>98</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C21">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="D21">
-        <v>97</v>
+        <v>4022</v>
       </c>
       <c r="F21">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G21">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H21">
-        <v>97</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C22">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="D22">
-        <v>109</v>
+        <v>5747</v>
       </c>
       <c r="F22">
         <v>33</v>
       </c>
       <c r="G22">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="H22">
-        <v>112</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="D23">
-        <v>83</v>
+        <v>3866</v>
       </c>
       <c r="F23">
         <v>34</v>
       </c>
       <c r="G23">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H23">
-        <v>104</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C24">
-        <v>42</v>
+        <v>289</v>
       </c>
       <c r="D24">
-        <v>97</v>
+        <v>3822</v>
       </c>
       <c r="F24">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G24">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H24">
-        <v>106</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="D25">
-        <v>97</v>
+        <v>3392</v>
       </c>
       <c r="F25">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G25">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H25">
-        <v>107</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C26">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="D26">
-        <v>68</v>
+        <v>3461</v>
       </c>
       <c r="F26">
         <v>38</v>
       </c>
       <c r="G26">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H26">
-        <v>96</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C27">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="D27">
-        <v>117</v>
+        <v>3777</v>
       </c>
       <c r="F27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H27">
-        <v>95</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="D28">
-        <v>119</v>
+        <v>4281</v>
       </c>
       <c r="F28">
         <v>40</v>
       </c>
       <c r="G28">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H28">
-        <v>102</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="D29">
-        <v>91</v>
+        <v>4231</v>
       </c>
       <c r="F29">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G29">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C30">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="D30">
-        <v>78</v>
+        <v>4255</v>
       </c>
       <c r="F30">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G30">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H30">
-        <v>102</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="D31">
-        <v>93</v>
+        <v>4090</v>
       </c>
       <c r="F31">
         <v>33</v>
       </c>
       <c r="G31">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H31">
-        <v>104</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C32">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="D32">
-        <v>96</v>
+        <v>3480</v>
       </c>
       <c r="F32">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H32">
-        <v>64</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="D33">
-        <v>98</v>
+        <v>3589</v>
       </c>
       <c r="F33">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G33">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H33">
-        <v>93</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>281</v>
       </c>
       <c r="D34">
-        <v>96</v>
+        <v>4260</v>
       </c>
       <c r="F34">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34">
-        <v>99</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C35">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="D35">
-        <v>106</v>
+        <v>3036</v>
       </c>
       <c r="F35">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G35">
         <v>48</v>
       </c>
       <c r="H35">
-        <v>121</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C36">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="D36">
-        <v>82</v>
+        <v>2247</v>
       </c>
       <c r="F36">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G36">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="H36">
-        <v>97</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37">
+        <v>68</v>
+      </c>
+      <c r="C37">
+        <v>279</v>
+      </c>
+      <c r="D37">
+        <v>2412</v>
+      </c>
+      <c r="F37">
         <v>38</v>
       </c>
-      <c r="C37">
-        <v>30</v>
-      </c>
-      <c r="D37">
-        <v>85</v>
-      </c>
-      <c r="F37">
-        <v>40</v>
-      </c>
       <c r="G37">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H37">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="D38">
-        <v>81</v>
+        <v>2444</v>
       </c>
       <c r="F38">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G38">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H38">
-        <v>247</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="D39">
-        <v>88</v>
+        <v>2461</v>
       </c>
       <c r="F39">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G39">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H39">
-        <v>228</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="D40">
-        <v>84</v>
+        <v>2511</v>
       </c>
       <c r="F40">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G40">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H40">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C41">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="D41">
-        <v>90</v>
+        <v>4617</v>
       </c>
       <c r="F41">
         <v>39</v>
       </c>
       <c r="G41">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H41">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="D42">
-        <v>90</v>
+        <v>4644</v>
       </c>
       <c r="F42">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G42">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H42">
-        <v>242</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C43">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="D43">
-        <v>82</v>
+        <v>4317</v>
       </c>
       <c r="F43">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G43">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H43">
-        <v>172</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C44">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="D44">
-        <v>87</v>
+        <v>3584</v>
       </c>
       <c r="F44">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G44">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H44">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C45">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="D45">
-        <v>93</v>
+        <v>3611</v>
       </c>
       <c r="F45">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G45">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H45">
-        <v>151</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C46">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="D46">
-        <v>85</v>
+        <v>4215</v>
       </c>
       <c r="F46">
         <v>34</v>
       </c>
       <c r="G46">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H46">
-        <v>141</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C47">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="D47">
-        <v>89</v>
+        <v>2971</v>
       </c>
       <c r="F47">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G47">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H47">
-        <v>134</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C48">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="D48">
-        <v>90</v>
+        <v>2340</v>
       </c>
       <c r="F48">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H48">
-        <v>165</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C49">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="D49">
-        <v>92</v>
+        <v>2404</v>
       </c>
       <c r="F49">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G49">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H49">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C50">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D50">
-        <v>78</v>
+        <v>2523</v>
       </c>
       <c r="F50">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G50">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H50">
-        <v>156</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C51">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="D51">
-        <v>109</v>
+        <v>2288</v>
       </c>
       <c r="F51">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>57</v>
@@ -4168,1042 +7487,1042 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C52">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="D52">
-        <v>89</v>
+        <v>2331</v>
       </c>
       <c r="F52">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H52">
-        <v>132</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C53">
-        <v>48</v>
+        <v>282</v>
       </c>
       <c r="D53">
-        <v>86</v>
+        <v>2263</v>
       </c>
       <c r="F53">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G53">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H53">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C54">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="D54">
-        <v>80</v>
+        <v>2389</v>
       </c>
       <c r="F54">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G54">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H54">
-        <v>142</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C55">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="D55">
-        <v>84</v>
+        <v>2266</v>
       </c>
       <c r="F55">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G55">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H55">
-        <v>140</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C56">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="D56">
-        <v>85</v>
+        <v>3290</v>
       </c>
       <c r="F56">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G56">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H56">
-        <v>145</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C57">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="D57">
-        <v>93</v>
+        <v>4402</v>
       </c>
       <c r="F57">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G57">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H57">
-        <v>139</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C58">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="D58">
-        <v>86</v>
+        <v>4146</v>
       </c>
       <c r="F58">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G58">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H58">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C59">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="D59">
-        <v>94</v>
+        <v>3866</v>
       </c>
       <c r="F59">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G59">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H59">
-        <v>132</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C60">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="D60">
-        <v>89</v>
+        <v>3324</v>
       </c>
       <c r="F60">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G60">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H60">
-        <v>170</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C61">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="D61">
-        <v>89</v>
+        <v>3074</v>
       </c>
       <c r="F61">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G61">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H61">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="D62">
-        <v>94</v>
+        <v>2289</v>
       </c>
       <c r="F62">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G62">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H62">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C63">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="D63">
-        <v>81</v>
+        <v>2306</v>
       </c>
       <c r="F63">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G63">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H63">
-        <v>123</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C64">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="D64">
-        <v>79</v>
+        <v>2543</v>
       </c>
       <c r="F64">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G64">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H64">
-        <v>130</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <v>212</v>
+      </c>
+      <c r="D65">
+        <v>2627</v>
+      </c>
+      <c r="F65">
         <v>32</v>
       </c>
-      <c r="C65">
-        <v>45</v>
-      </c>
-      <c r="D65">
-        <v>94</v>
-      </c>
-      <c r="F65">
-        <v>50</v>
-      </c>
       <c r="G65">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H65">
-        <v>177</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66">
+        <v>85</v>
+      </c>
+      <c r="C66">
+        <v>203</v>
+      </c>
+      <c r="D66">
+        <v>2490</v>
+      </c>
+      <c r="F66">
         <v>33</v>
       </c>
-      <c r="C66">
-        <v>43</v>
-      </c>
-      <c r="D66">
-        <v>83</v>
-      </c>
-      <c r="F66">
-        <v>39</v>
-      </c>
       <c r="G66">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H66">
-        <v>145</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C67">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="D67">
-        <v>72</v>
+        <v>2411</v>
       </c>
       <c r="F67">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G67">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H67">
-        <v>124</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C68">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="D68">
-        <v>53</v>
+        <v>2261</v>
       </c>
       <c r="F68">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G68">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H68">
-        <v>127</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C69">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="D69">
-        <v>87</v>
+        <v>3301</v>
       </c>
       <c r="F69">
         <v>35</v>
       </c>
       <c r="G69">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H69">
-        <v>125</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C70">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="D70">
-        <v>84</v>
+        <v>3008</v>
       </c>
       <c r="F70">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="H70">
-        <v>131</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71">
+        <v>64</v>
+      </c>
+      <c r="C71">
+        <v>196</v>
+      </c>
+      <c r="D71">
+        <v>3830</v>
+      </c>
+      <c r="F71">
         <v>37</v>
       </c>
-      <c r="C71">
-        <v>53</v>
-      </c>
-      <c r="D71">
-        <v>93</v>
-      </c>
-      <c r="F71">
-        <v>36</v>
-      </c>
       <c r="G71">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H71">
-        <v>140</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C72">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="D72">
-        <v>91</v>
+        <v>2577</v>
       </c>
       <c r="F72">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H72">
-        <v>141</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C73">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="D73">
-        <v>95</v>
+        <v>2203</v>
       </c>
       <c r="F73">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G73">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="H73">
-        <v>79</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C74">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="D74">
-        <v>92</v>
+        <v>2226</v>
       </c>
       <c r="F74">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G74">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H74">
-        <v>86</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C75">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="D75">
-        <v>91</v>
+        <v>2266</v>
       </c>
       <c r="F75">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G75">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H75">
-        <v>82</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="D76">
-        <v>95</v>
+        <v>2333</v>
       </c>
       <c r="F76">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G76">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H76">
-        <v>81</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C77">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="D77">
-        <v>97</v>
+        <v>2303</v>
       </c>
       <c r="F77">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G77">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H77">
-        <v>83</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C78">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="D78">
-        <v>93</v>
+        <v>2355</v>
       </c>
       <c r="F78">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G78">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H78">
-        <v>78</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C79">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="D79">
-        <v>93</v>
+        <v>2234</v>
       </c>
       <c r="F79">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G79">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H79">
-        <v>82</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C80">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="D80">
-        <v>92</v>
+        <v>2428</v>
       </c>
       <c r="F80">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G80">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H80">
-        <v>85</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C81">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="D81">
-        <v>100</v>
+        <v>2291</v>
       </c>
       <c r="F81">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G81">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H81">
-        <v>82</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C82">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="D82">
-        <v>86</v>
+        <v>2259</v>
       </c>
       <c r="F82">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G82">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H82">
-        <v>81</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C83">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="D83">
-        <v>83</v>
+        <v>2261</v>
       </c>
       <c r="F83">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G83">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H83">
-        <v>78</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C84">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="D84">
-        <v>85</v>
+        <v>2372</v>
       </c>
       <c r="F84">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G84">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H84">
-        <v>84</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C85">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="D85">
-        <v>89</v>
+        <v>2268</v>
       </c>
       <c r="F85">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G85">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H85">
-        <v>92</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C86">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="D86">
-        <v>76</v>
+        <v>2266</v>
       </c>
       <c r="F86">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G86">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H86">
-        <v>81</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C87">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="D87">
-        <v>65</v>
+        <v>2340</v>
       </c>
       <c r="F87">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G87">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H87">
-        <v>80</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C88">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="D88">
-        <v>70</v>
+        <v>2636</v>
       </c>
       <c r="F88">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G88">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H88">
-        <v>79</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C89">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="D89">
-        <v>71</v>
+        <v>2561</v>
       </c>
       <c r="F89">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G89">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="H89">
-        <v>83</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C90">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="D90">
-        <v>87</v>
+        <v>2520</v>
       </c>
       <c r="F90">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G90">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H90">
-        <v>81</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C91">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="D91">
-        <v>71</v>
+        <v>2416</v>
       </c>
       <c r="F91">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G91">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H91">
-        <v>78</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C92">
+        <v>212</v>
+      </c>
+      <c r="D92">
+        <v>2223</v>
+      </c>
+      <c r="F92">
         <v>43</v>
       </c>
-      <c r="D92">
-        <v>82</v>
-      </c>
-      <c r="F92">
-        <v>39</v>
-      </c>
       <c r="G92">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H92">
-        <v>79</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C93">
+        <v>203</v>
+      </c>
+      <c r="D93">
+        <v>2225</v>
+      </c>
+      <c r="F93">
         <v>45</v>
       </c>
-      <c r="D93">
-        <v>84</v>
-      </c>
-      <c r="F93">
-        <v>34</v>
-      </c>
       <c r="G93">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H93">
-        <v>80</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C94">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="D94">
-        <v>77</v>
+        <v>2262</v>
       </c>
       <c r="F94">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G94">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H94">
-        <v>79</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C95">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="D95">
-        <v>89</v>
+        <v>2235</v>
       </c>
       <c r="F95">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G95">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H95">
-        <v>83</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C96">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="D96">
-        <v>56</v>
+        <v>3240</v>
       </c>
       <c r="F96">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G96">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H96">
-        <v>77</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C97">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="D97">
-        <v>84</v>
+        <v>3698</v>
       </c>
       <c r="F97">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G97">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>76</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C98">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="D98">
-        <v>89</v>
+        <v>3401</v>
       </c>
       <c r="F98">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G98">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H98">
-        <v>79</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C99">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="D99">
-        <v>87</v>
+        <v>2454</v>
       </c>
       <c r="F99">
         <v>35</v>
       </c>
       <c r="G99">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H99">
-        <v>79</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C100">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="D100">
-        <v>90</v>
+        <v>3232</v>
       </c>
       <c r="F100">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G100">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H100">
-        <v>80</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C101">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="D101">
-        <v>89</v>
+        <v>3297</v>
       </c>
       <c r="F101">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G101">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H101">
-        <v>78</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C102">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="D102">
-        <v>96</v>
+        <v>5373</v>
       </c>
       <c r="F102">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G102">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H102">
-        <v>78</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C103">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="D103">
-        <v>93</v>
+        <v>6603</v>
       </c>
       <c r="F103">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G103">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H103">
-        <v>83</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
